--- a/data/trans_dic/P14B35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Edad-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.009345879119318836</v>
+        <v>0.009483449405594013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005043591916124888</v>
+        <v>0.005130838833351511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04677502904974466</v>
+        <v>0.04958780642433867</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.0371039770441141</v>
+        <v>0.03798026436887522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02955673960125209</v>
+        <v>0.03216518683499235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1262359919410669</v>
+        <v>0.1313388608406333</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01329861310966434</v>
+        <v>0.01284651832990645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004957327454147659</v>
+        <v>0.004959722523623204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0544050486373169</v>
+        <v>0.05216953556926211</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03841248361322618</v>
+        <v>0.03742969409261628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02328296003681925</v>
+        <v>0.02296848661129039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1044308646630393</v>
+        <v>0.1045928974724666</v>
       </c>
     </row>
     <row r="10">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.01401624964952161</v>
+        <v>0.01409853229521204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001249386085064165</v>
+        <v>0.001232432172918605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03848254272167512</v>
+        <v>0.03874041847613432</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03825881397802727</v>
+        <v>0.03834695111905047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01230594309245221</v>
+        <v>0.01241070072817473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07109235799411615</v>
+        <v>0.06812514785397511</v>
       </c>
     </row>
     <row r="13">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.001719956517304771</v>
+        <v>0.00173402880504679</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01784445591670661</v>
+        <v>0.01790015747041473</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01565617410045465</v>
+        <v>0.01435755874187379</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009847838246396514</v>
+        <v>0.01056874490431451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03707301527840807</v>
+        <v>0.03705556687011227</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.003169858050267538</v>
+        <v>0.003169858050267539</v>
       </c>
     </row>
     <row r="17">
@@ -855,7 +855,7 @@
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.0009215408138241218</v>
+        <v>0.000905441163460539</v>
       </c>
     </row>
     <row r="18">
@@ -869,7 +869,7 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.008941416168106802</v>
+        <v>0.007696533519386061</v>
       </c>
     </row>
     <row r="19">
@@ -1001,13 +1001,13 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
     </row>
     <row r="27">
@@ -1019,13 +1019,13 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="28">
@@ -1178,13 +1178,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>4021</v>
+        <v>4080</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1996</v>
+        <v>2031</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16957</v>
+        <v>17976</v>
       </c>
     </row>
     <row r="7">
@@ -1196,13 +1196,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>15963</v>
+        <v>16340</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11697</v>
+        <v>12730</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45762</v>
+        <v>47612</v>
       </c>
     </row>
     <row r="8">
@@ -1258,13 +1258,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>8116</v>
+        <v>7840</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27069</v>
+        <v>25957</v>
       </c>
     </row>
     <row r="11">
@@ -1276,13 +1276,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>23441</v>
+        <v>22842</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13121</v>
+        <v>12944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51960</v>
+        <v>52041</v>
       </c>
     </row>
     <row r="12">
@@ -1338,13 +1338,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>9932</v>
+        <v>9990</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23792</v>
+        <v>23951</v>
       </c>
     </row>
     <row r="15">
@@ -1356,13 +1356,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>27109</v>
+        <v>27172</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8139</v>
+        <v>8208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43953</v>
+        <v>42119</v>
       </c>
     </row>
     <row r="16">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13118</v>
+        <v>13159</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>9617</v>
+        <v>8819</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6392</v>
+        <v>6860</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27254</v>
+        <v>27241</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23">
@@ -1514,7 +1514,7 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5425</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="24">
@@ -1706,13 +1706,13 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
     </row>
     <row r="36">
